--- a/Japanese_Sardine/JS_catch.xlsx
+++ b/Japanese_Sardine/JS_catch.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA177DF-927E-4B3F-AFB6-3C0D1896FF7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804139CA-933A-40A7-A192-3C0170ED3346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1886" yWindow="1294" windowWidth="24720" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catch" sheetId="1" r:id="rId1"/>
     <sheet name="Effort" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Catch!$A$1:$M$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Effort!$A$1:$J$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Catch!$A$1:$M$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Effort!$A$1:$J$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -93,13 +97,13 @@
     <t>* in preparation</t>
   </si>
   <si>
-    <t>NPFC-2021-AR-Annual Summary Footprint - Japanese Sardine</t>
+    <t>NPFC-2022-AR-Annual Summary Footprint - Japanese Sardine</t>
   </si>
   <si>
-    <t>544,788*</t>
+    <t>472,520*</t>
   </si>
   <si>
-    <t>55,222*</t>
+    <t>103,280*</t>
   </si>
 </sst>
 </file>
@@ -1142,7 +1146,7 @@
       <right style="dotted">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="dotted">
         <color indexed="64"/>
       </top>
       <bottom style="dotted">
@@ -1158,7 +1162,7 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1478,6 +1482,51 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="6" fillId="2" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1565,70 +1614,58 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="2" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="2" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1971,10 +2008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6"/>
@@ -1982,10 +2019,10 @@
     <col min="1" max="1" width="7.3046875" style="1" customWidth="1"/>
     <col min="2" max="5" width="8.15234375" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.69140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.53515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.84375" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.15234375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.53515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.69140625" style="1" customWidth="1"/>
     <col min="11" max="13" width="7.15234375" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
@@ -2030,31 +2067,31 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="15.65" customHeight="1" thickBot="1">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="120" t="s">
+      <c r="C4" s="135"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="120"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="109" t="s">
+      <c r="F4" s="135"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="111"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="126"/>
     </row>
     <row r="5" spans="1:13" ht="25.75">
-      <c r="A5" s="114"/>
-      <c r="B5" s="116" t="s">
+      <c r="A5" s="129"/>
+      <c r="B5" s="131" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="54" t="s">
@@ -2063,7 +2100,7 @@
       <c r="D5" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="122" t="s">
+      <c r="E5" s="137" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="54" t="s">
@@ -2072,38 +2109,38 @@
       <c r="G5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="107" t="s">
+      <c r="H5" s="122" t="s">
         <v>2</v>
       </c>
       <c r="I5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="112" t="s">
+      <c r="J5" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="112"/>
-      <c r="L5" s="118" t="s">
+      <c r="K5" s="127"/>
+      <c r="L5" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="119"/>
+      <c r="M5" s="134"/>
     </row>
     <row r="6" spans="1:13" ht="15.65" customHeight="1" thickBot="1">
-      <c r="A6" s="115"/>
-      <c r="B6" s="117"/>
+      <c r="A6" s="130"/>
+      <c r="B6" s="132"/>
       <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="123"/>
+      <c r="E6" s="138"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="108"/>
+      <c r="H6" s="123"/>
       <c r="I6" s="11" t="s">
         <v>9</v>
       </c>
@@ -2120,303 +2157,321 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="19.3" customHeight="1">
+    <row r="7" spans="1:13" ht="18.45" customHeight="1">
       <c r="A7" s="90">
+        <v>2021</v>
+      </c>
+      <c r="B7" s="105">
+        <v>237301</v>
+      </c>
+      <c r="C7" s="13">
+        <v>213360.6581</v>
+      </c>
+      <c r="D7" s="14">
+        <v>23940.1</v>
+      </c>
+      <c r="E7" s="164">
+        <v>575800</v>
+      </c>
+      <c r="F7" s="114" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="152">
+        <v>255751</v>
+      </c>
+      <c r="I7" s="121">
+        <v>10264.66</v>
+      </c>
+      <c r="J7" s="153">
+        <v>226462.859</v>
+      </c>
+      <c r="K7" s="36">
+        <v>2111.8649999999998</v>
+      </c>
+      <c r="L7" s="121">
+        <v>16901.388999999999</v>
+      </c>
+      <c r="M7" s="155">
+        <v>10.673999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="19.3" customHeight="1">
+      <c r="A8" s="6">
         <v>2020</v>
       </c>
-      <c r="B7" s="105">
+      <c r="B8" s="151">
         <v>92679</v>
       </c>
-      <c r="C7" s="143">
+      <c r="C8" s="13">
         <v>85697.600000000006</v>
       </c>
-      <c r="D7" s="144">
+      <c r="D8" s="14">
         <v>6980.9</v>
       </c>
-      <c r="E7" s="145">
-        <v>600010</v>
-      </c>
-      <c r="F7" s="146" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="147" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="148">
+      <c r="E8" s="67">
+        <v>614731</v>
+      </c>
+      <c r="F8" s="165">
+        <v>551914</v>
+      </c>
+      <c r="G8" s="166">
+        <v>62817</v>
+      </c>
+      <c r="H8" s="152">
         <v>315491</v>
       </c>
-      <c r="I7" s="149">
+      <c r="I8" s="153">
         <v>10745.663</v>
       </c>
-      <c r="J7" s="149">
+      <c r="J8" s="153">
         <v>279358.94</v>
       </c>
-      <c r="K7" s="150">
+      <c r="K8" s="36">
         <v>2590.8649999999998</v>
       </c>
-      <c r="L7" s="157">
+      <c r="L8" s="154">
         <v>22786.771000000001</v>
       </c>
-      <c r="M7" s="151">
+      <c r="M8" s="155">
         <v>8.9890000000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="19.3" customHeight="1">
-      <c r="A8" s="137">
+    <row r="9" spans="1:13" ht="19.3" customHeight="1">
+      <c r="A9" s="108">
         <v>2019</v>
       </c>
-      <c r="B8" s="138">
+      <c r="B9" s="109">
         <v>45986</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C9" s="18">
         <v>32172</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D9" s="17">
         <v>13814</v>
       </c>
-      <c r="E8" s="65">
+      <c r="E9" s="65">
         <v>525054</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F9" s="61">
         <v>461129</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G9" s="14">
         <v>60281</v>
       </c>
-      <c r="H8" s="139">
+      <c r="H9" s="110">
         <v>133011.61900000001</v>
       </c>
-      <c r="I8" s="140">
+      <c r="I9" s="111">
         <v>8366.7000000000007</v>
       </c>
-      <c r="J8" s="140">
+      <c r="J9" s="111">
         <v>124616.62699999999</v>
-      </c>
-      <c r="K8" s="34">
-        <v>0</v>
-      </c>
-      <c r="L8" s="141">
-        <v>28.094000000000001</v>
-      </c>
-      <c r="M8" s="142">
-        <v>0.19800000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="19.3" customHeight="1">
-      <c r="A9" s="26">
-        <v>2018</v>
-      </c>
-      <c r="B9" s="15">
-        <v>26329</v>
-      </c>
-      <c r="C9" s="18">
-        <v>25246.42</v>
-      </c>
-      <c r="D9" s="17">
-        <v>1082.74</v>
-      </c>
-      <c r="E9" s="65">
-        <v>451382</v>
-      </c>
-      <c r="F9" s="61">
-        <v>377274</v>
-      </c>
-      <c r="G9" s="17">
-        <v>74108</v>
-      </c>
-      <c r="H9" s="136">
-        <v>62887</v>
-      </c>
-      <c r="I9" s="18">
-        <v>3116.8</v>
-      </c>
-      <c r="J9" s="18">
-        <v>59754.675999999999</v>
       </c>
       <c r="K9" s="34">
         <v>0</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="112">
+        <v>28.094000000000001</v>
+      </c>
+      <c r="M9" s="113">
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="19.3" customHeight="1">
+      <c r="A10" s="26">
+        <v>2018</v>
+      </c>
+      <c r="B10" s="15">
+        <v>26329</v>
+      </c>
+      <c r="C10" s="18">
+        <v>25246.42</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1082.74</v>
+      </c>
+      <c r="E10" s="65">
+        <v>451382</v>
+      </c>
+      <c r="F10" s="61">
+        <v>377274</v>
+      </c>
+      <c r="G10" s="17">
+        <v>74108</v>
+      </c>
+      <c r="H10" s="107">
+        <v>62887</v>
+      </c>
+      <c r="I10" s="18">
+        <v>3116.8</v>
+      </c>
+      <c r="J10" s="18">
+        <v>59754.675999999999</v>
+      </c>
+      <c r="K10" s="34">
+        <v>0</v>
+      </c>
+      <c r="L10" s="34">
         <v>13.848000000000001</v>
       </c>
-      <c r="M9" s="35">
+      <c r="M10" s="35">
         <v>2.028</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="19.3" customHeight="1">
-      <c r="A10" s="8">
-        <v>2017</v>
-      </c>
-      <c r="B10" s="27">
-        <v>10164</v>
-      </c>
-      <c r="C10" s="13">
-        <v>9177.74</v>
-      </c>
-      <c r="D10" s="17">
-        <v>986</v>
-      </c>
-      <c r="E10" s="65">
-        <v>445818</v>
-      </c>
-      <c r="F10" s="61">
-        <v>394790</v>
-      </c>
-      <c r="G10" s="103">
-        <v>51028</v>
-      </c>
-      <c r="H10" s="19">
-        <v>16524.601999999999</v>
-      </c>
-      <c r="I10" s="13">
-        <v>2552.3000000000002</v>
-      </c>
-      <c r="J10" s="18">
-        <v>13859.208000000001</v>
-      </c>
-      <c r="K10" s="18">
-        <v>64.031999999999996</v>
-      </c>
-      <c r="L10" s="34">
-        <v>33.655999999999999</v>
-      </c>
-      <c r="M10" s="35">
-        <v>15.406000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="19.3" customHeight="1">
       <c r="A11" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B11" s="27">
+        <v>10164</v>
+      </c>
+      <c r="C11" s="13">
+        <v>9177.74</v>
+      </c>
+      <c r="D11" s="17">
+        <v>986</v>
+      </c>
+      <c r="E11" s="65">
+        <v>445818</v>
+      </c>
+      <c r="F11" s="61">
+        <v>394790</v>
+      </c>
+      <c r="G11" s="103">
+        <v>51028</v>
+      </c>
+      <c r="H11" s="19">
+        <v>16524.601999999999</v>
+      </c>
+      <c r="I11" s="13">
+        <v>2552.3000000000002</v>
+      </c>
+      <c r="J11" s="18">
+        <v>13859.208000000001</v>
+      </c>
+      <c r="K11" s="18">
+        <v>64.031999999999996</v>
+      </c>
+      <c r="L11" s="34">
+        <v>33.655999999999999</v>
+      </c>
+      <c r="M11" s="35">
+        <v>15.406000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="19.3" customHeight="1">
+      <c r="A12" s="8">
         <v>2016</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="65">
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="65">
         <v>315685</v>
       </c>
-      <c r="F11" s="62">
+      <c r="F12" s="62">
         <v>269652</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G12" s="17">
         <v>46033</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H12" s="19">
         <v>6679.9629999999997</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I12" s="18">
         <v>65.423000000000002</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J12" s="18">
         <v>6608.6149999999998</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K12" s="18">
         <v>3.7759999999999998</v>
       </c>
-      <c r="L11" s="34">
+      <c r="L12" s="34">
         <v>2.149</v>
       </c>
-      <c r="M11" s="35"/>
-    </row>
-    <row r="12" spans="1:13" ht="19.3" customHeight="1">
-      <c r="A12" s="6">
+      <c r="M12" s="35"/>
+    </row>
+    <row r="13" spans="1:13" ht="19.3" customHeight="1">
+      <c r="A13" s="6">
         <v>2015</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="65">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="65">
         <v>273864</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F13" s="63">
         <v>209188</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G13" s="14">
         <v>64676</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H13" s="12">
         <v>22.023</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="18">
+      <c r="I13" s="13"/>
+      <c r="J13" s="18">
         <v>13.465</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K13" s="18">
         <v>5.0579999999999998</v>
       </c>
-      <c r="L12" s="36">
+      <c r="L13" s="36">
         <v>3.5</v>
       </c>
-      <c r="M12" s="37"/>
-    </row>
-    <row r="13" spans="1:13" ht="19.3" customHeight="1">
-      <c r="A13" s="71">
+      <c r="M13" s="37"/>
+    </row>
+    <row r="14" spans="1:13" ht="19.3" customHeight="1">
+      <c r="A14" s="71">
         <v>2014</v>
-      </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="65">
-        <v>186245</v>
-      </c>
-      <c r="F13" s="75">
-        <v>145459</v>
-      </c>
-      <c r="G13" s="74">
-        <v>40786</v>
-      </c>
-      <c r="H13" s="72">
-        <v>9.5039999999999996</v>
-      </c>
-      <c r="I13" s="73"/>
-      <c r="J13" s="13">
-        <v>1.417</v>
-      </c>
-      <c r="K13" s="13">
-        <v>7.9660000000000002</v>
-      </c>
-      <c r="L13" s="78">
-        <v>0.121</v>
-      </c>
-      <c r="M13" s="77"/>
-    </row>
-    <row r="14" spans="1:13" ht="19.3" customHeight="1">
-      <c r="A14" s="6">
-        <v>2013</v>
       </c>
       <c r="B14" s="72"/>
       <c r="C14" s="73"/>
       <c r="D14" s="74"/>
       <c r="E14" s="65">
-        <v>129513</v>
+        <v>186245</v>
       </c>
       <c r="F14" s="75">
-        <v>113691</v>
+        <v>145459</v>
       </c>
       <c r="G14" s="74">
-        <v>15822</v>
-      </c>
-      <c r="H14" s="72"/>
+        <v>40786</v>
+      </c>
+      <c r="H14" s="72">
+        <v>9.5039999999999996</v>
+      </c>
       <c r="I14" s="73"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="76"/>
+      <c r="J14" s="13">
+        <v>1.417</v>
+      </c>
+      <c r="K14" s="13">
+        <v>7.9660000000000002</v>
+      </c>
+      <c r="L14" s="78">
+        <v>0.121</v>
+      </c>
       <c r="M14" s="77"/>
     </row>
     <row r="15" spans="1:13" ht="19.3" customHeight="1">
-      <c r="A15" s="71">
-        <v>2012</v>
+      <c r="A15" s="6">
+        <v>2013</v>
       </c>
       <c r="B15" s="72"/>
       <c r="C15" s="73"/>
       <c r="D15" s="74"/>
       <c r="E15" s="65">
-        <v>101592</v>
+        <v>129513</v>
       </c>
       <c r="F15" s="75">
-        <v>89728</v>
+        <v>113691</v>
       </c>
       <c r="G15" s="74">
-        <v>11864</v>
+        <v>15822</v>
       </c>
       <c r="H15" s="72"/>
       <c r="I15" s="73"/>
@@ -2426,20 +2481,20 @@
       <c r="M15" s="77"/>
     </row>
     <row r="16" spans="1:13" ht="19.3" customHeight="1">
-      <c r="A16" s="6">
-        <v>2011</v>
+      <c r="A16" s="71">
+        <v>2012</v>
       </c>
       <c r="B16" s="72"/>
       <c r="C16" s="73"/>
       <c r="D16" s="74"/>
       <c r="E16" s="65">
-        <v>131854</v>
+        <v>101592</v>
       </c>
       <c r="F16" s="75">
-        <v>118764</v>
+        <v>89728</v>
       </c>
       <c r="G16" s="74">
-        <v>13090</v>
+        <v>11864</v>
       </c>
       <c r="H16" s="72"/>
       <c r="I16" s="73"/>
@@ -2449,20 +2504,20 @@
       <c r="M16" s="77"/>
     </row>
     <row r="17" spans="1:15" ht="19.3" customHeight="1">
-      <c r="A17" s="71">
-        <v>2010</v>
+      <c r="A17" s="6">
+        <v>2011</v>
       </c>
       <c r="B17" s="72"/>
       <c r="C17" s="73"/>
       <c r="D17" s="74"/>
       <c r="E17" s="65">
-        <v>64575</v>
+        <v>131854</v>
       </c>
       <c r="F17" s="75">
-        <v>56378</v>
+        <v>118764</v>
       </c>
       <c r="G17" s="74">
-        <v>8197</v>
+        <v>13090</v>
       </c>
       <c r="H17" s="72"/>
       <c r="I17" s="73"/>
@@ -2472,20 +2527,20 @@
       <c r="M17" s="77"/>
     </row>
     <row r="18" spans="1:15" ht="19.3" customHeight="1">
-      <c r="A18" s="6">
-        <v>2009</v>
+      <c r="A18" s="71">
+        <v>2010</v>
       </c>
       <c r="B18" s="72"/>
       <c r="C18" s="73"/>
       <c r="D18" s="74"/>
       <c r="E18" s="65">
-        <v>49246</v>
+        <v>64575</v>
       </c>
       <c r="F18" s="75">
-        <v>39747</v>
+        <v>56378</v>
       </c>
       <c r="G18" s="74">
-        <v>9499</v>
+        <v>8197</v>
       </c>
       <c r="H18" s="72"/>
       <c r="I18" s="73"/>
@@ -2495,20 +2550,20 @@
       <c r="M18" s="77"/>
     </row>
     <row r="19" spans="1:15" ht="19.3" customHeight="1">
-      <c r="A19" s="71">
-        <v>2008</v>
+      <c r="A19" s="6">
+        <v>2009</v>
       </c>
       <c r="B19" s="72"/>
       <c r="C19" s="73"/>
       <c r="D19" s="74"/>
       <c r="E19" s="65">
-        <v>26854</v>
+        <v>49246</v>
       </c>
       <c r="F19" s="75">
-        <v>19917</v>
+        <v>39747</v>
       </c>
       <c r="G19" s="74">
-        <v>6937</v>
+        <v>9499</v>
       </c>
       <c r="H19" s="72"/>
       <c r="I19" s="73"/>
@@ -2518,20 +2573,20 @@
       <c r="M19" s="77"/>
     </row>
     <row r="20" spans="1:15" ht="19.3" customHeight="1">
-      <c r="A20" s="6">
-        <v>2007</v>
+      <c r="A20" s="71">
+        <v>2008</v>
       </c>
       <c r="B20" s="72"/>
       <c r="C20" s="73"/>
       <c r="D20" s="74"/>
       <c r="E20" s="65">
-        <v>65076</v>
+        <v>26854</v>
       </c>
       <c r="F20" s="75">
-        <v>56748</v>
+        <v>19917</v>
       </c>
       <c r="G20" s="74">
-        <v>8328</v>
+        <v>6937</v>
       </c>
       <c r="H20" s="72"/>
       <c r="I20" s="73"/>
@@ -2541,20 +2596,20 @@
       <c r="M20" s="77"/>
     </row>
     <row r="21" spans="1:15" ht="19.3" customHeight="1">
-      <c r="A21" s="71">
-        <v>2006</v>
+      <c r="A21" s="6">
+        <v>2007</v>
       </c>
       <c r="B21" s="72"/>
       <c r="C21" s="73"/>
       <c r="D21" s="74"/>
       <c r="E21" s="65">
-        <v>49177</v>
+        <v>65076</v>
       </c>
       <c r="F21" s="75">
-        <v>44872</v>
+        <v>56748</v>
       </c>
       <c r="G21" s="74">
-        <v>4305</v>
+        <v>8328</v>
       </c>
       <c r="H21" s="72"/>
       <c r="I21" s="73"/>
@@ -2564,20 +2619,20 @@
       <c r="M21" s="77"/>
     </row>
     <row r="22" spans="1:15" ht="19.3" customHeight="1">
-      <c r="A22" s="6">
-        <v>2005</v>
+      <c r="A22" s="71">
+        <v>2006</v>
       </c>
       <c r="B22" s="72"/>
       <c r="C22" s="73"/>
       <c r="D22" s="74"/>
       <c r="E22" s="65">
-        <v>24823</v>
+        <v>49177</v>
       </c>
       <c r="F22" s="75">
-        <v>13848</v>
+        <v>44872</v>
       </c>
       <c r="G22" s="74">
-        <v>10975</v>
+        <v>4305</v>
       </c>
       <c r="H22" s="72"/>
       <c r="I22" s="73"/>
@@ -2587,20 +2642,20 @@
       <c r="M22" s="77"/>
     </row>
     <row r="23" spans="1:15" ht="19.3" customHeight="1">
-      <c r="A23" s="71">
-        <v>2004</v>
+      <c r="A23" s="6">
+        <v>2005</v>
       </c>
       <c r="B23" s="72"/>
       <c r="C23" s="73"/>
       <c r="D23" s="74"/>
       <c r="E23" s="65">
-        <v>47983</v>
+        <v>24823</v>
       </c>
       <c r="F23" s="75">
-        <v>35975</v>
+        <v>13848</v>
       </c>
       <c r="G23" s="74">
-        <v>12008</v>
+        <v>10975</v>
       </c>
       <c r="H23" s="72"/>
       <c r="I23" s="73"/>
@@ -2610,20 +2665,20 @@
       <c r="M23" s="77"/>
     </row>
     <row r="24" spans="1:15" ht="19.3" customHeight="1">
-      <c r="A24" s="6">
-        <v>2003</v>
+      <c r="A24" s="71">
+        <v>2004</v>
       </c>
       <c r="B24" s="72"/>
       <c r="C24" s="73"/>
       <c r="D24" s="74"/>
       <c r="E24" s="65">
-        <v>50961</v>
+        <v>47983</v>
       </c>
       <c r="F24" s="75">
-        <v>40497</v>
+        <v>35975</v>
       </c>
       <c r="G24" s="74">
-        <v>10464</v>
+        <v>12008</v>
       </c>
       <c r="H24" s="72"/>
       <c r="I24" s="73"/>
@@ -2633,20 +2688,20 @@
       <c r="M24" s="77"/>
     </row>
     <row r="25" spans="1:15" ht="19.3" customHeight="1">
-      <c r="A25" s="71">
-        <v>2002</v>
+      <c r="A25" s="6">
+        <v>2003</v>
       </c>
       <c r="B25" s="72"/>
       <c r="C25" s="73"/>
       <c r="D25" s="74"/>
       <c r="E25" s="65">
-        <v>48862</v>
+        <v>50961</v>
       </c>
       <c r="F25" s="75">
-        <v>38599</v>
+        <v>40497</v>
       </c>
       <c r="G25" s="74">
-        <v>10263</v>
+        <v>10464</v>
       </c>
       <c r="H25" s="72"/>
       <c r="I25" s="73"/>
@@ -2656,20 +2711,20 @@
       <c r="M25" s="77"/>
     </row>
     <row r="26" spans="1:15" ht="19.3" customHeight="1">
-      <c r="A26" s="6">
-        <v>2001</v>
+      <c r="A26" s="71">
+        <v>2002</v>
       </c>
       <c r="B26" s="72"/>
       <c r="C26" s="73"/>
       <c r="D26" s="74"/>
       <c r="E26" s="65">
-        <v>176695</v>
+        <v>48862</v>
       </c>
       <c r="F26" s="75">
-        <v>151282</v>
+        <v>38599</v>
       </c>
       <c r="G26" s="74">
-        <v>25413</v>
+        <v>10263</v>
       </c>
       <c r="H26" s="72"/>
       <c r="I26" s="73"/>
@@ -2679,20 +2734,20 @@
       <c r="M26" s="77"/>
     </row>
     <row r="27" spans="1:15" ht="19.3" customHeight="1">
-      <c r="A27" s="71">
-        <v>2000</v>
+      <c r="A27" s="6">
+        <v>2001</v>
       </c>
       <c r="B27" s="72"/>
       <c r="C27" s="73"/>
       <c r="D27" s="74"/>
       <c r="E27" s="65">
-        <v>138743</v>
+        <v>176695</v>
       </c>
       <c r="F27" s="75">
-        <v>117483</v>
+        <v>151282</v>
       </c>
       <c r="G27" s="74">
-        <v>21260</v>
+        <v>25413</v>
       </c>
       <c r="H27" s="72"/>
       <c r="I27" s="73"/>
@@ -2702,20 +2757,20 @@
       <c r="M27" s="77"/>
     </row>
     <row r="28" spans="1:15" ht="19.3" customHeight="1">
-      <c r="A28" s="6">
-        <v>1999</v>
+      <c r="A28" s="71">
+        <v>2000</v>
       </c>
       <c r="B28" s="72"/>
       <c r="C28" s="73"/>
       <c r="D28" s="74"/>
       <c r="E28" s="65">
-        <v>307857</v>
+        <v>138743</v>
       </c>
       <c r="F28" s="75">
-        <v>272011</v>
+        <v>117483</v>
       </c>
       <c r="G28" s="74">
-        <v>35846</v>
+        <v>21260</v>
       </c>
       <c r="H28" s="72"/>
       <c r="I28" s="73"/>
@@ -2725,20 +2780,20 @@
       <c r="M28" s="77"/>
     </row>
     <row r="29" spans="1:15" ht="19.3" customHeight="1">
-      <c r="A29" s="71">
-        <v>1998</v>
+      <c r="A29" s="6">
+        <v>1999</v>
       </c>
       <c r="B29" s="72"/>
       <c r="C29" s="73"/>
       <c r="D29" s="74"/>
       <c r="E29" s="65">
-        <v>141513</v>
+        <v>307857</v>
       </c>
       <c r="F29" s="75">
-        <v>112842</v>
+        <v>272011</v>
       </c>
       <c r="G29" s="74">
-        <v>28671</v>
+        <v>35846</v>
       </c>
       <c r="H29" s="72"/>
       <c r="I29" s="73"/>
@@ -2748,20 +2803,20 @@
       <c r="M29" s="77"/>
     </row>
     <row r="30" spans="1:15" ht="19.3" customHeight="1">
-      <c r="A30" s="6">
-        <v>1997</v>
+      <c r="A30" s="71">
+        <v>1998</v>
       </c>
       <c r="B30" s="72"/>
       <c r="C30" s="73"/>
       <c r="D30" s="74"/>
       <c r="E30" s="65">
-        <v>255149</v>
+        <v>141513</v>
       </c>
       <c r="F30" s="75">
-        <v>214617</v>
+        <v>112842</v>
       </c>
       <c r="G30" s="74">
-        <v>40532</v>
+        <v>28671</v>
       </c>
       <c r="H30" s="72"/>
       <c r="I30" s="73"/>
@@ -2771,20 +2826,20 @@
       <c r="M30" s="77"/>
     </row>
     <row r="31" spans="1:15" ht="19.3" customHeight="1">
-      <c r="A31" s="71">
-        <v>1996</v>
+      <c r="A31" s="6">
+        <v>1997</v>
       </c>
       <c r="B31" s="72"/>
       <c r="C31" s="73"/>
       <c r="D31" s="74"/>
       <c r="E31" s="65">
-        <v>180720</v>
+        <v>255149</v>
       </c>
       <c r="F31" s="75">
-        <v>130182</v>
+        <v>214617</v>
       </c>
       <c r="G31" s="74">
-        <v>50538</v>
+        <v>40532</v>
       </c>
       <c r="H31" s="72"/>
       <c r="I31" s="73"/>
@@ -2792,141 +2847,157 @@
       <c r="K31" s="13"/>
       <c r="L31" s="76"/>
       <c r="M31" s="77"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="5"/>
-    </row>
-    <row r="32" spans="1:15" ht="19.3" customHeight="1" thickBot="1">
-      <c r="A32" s="79">
+    </row>
+    <row r="32" spans="1:15" ht="19.3" customHeight="1">
+      <c r="A32" s="71">
+        <v>1996</v>
+      </c>
+      <c r="B32" s="72"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="65">
+        <v>180720</v>
+      </c>
+      <c r="F32" s="75">
+        <v>130182</v>
+      </c>
+      <c r="G32" s="74">
+        <v>50538</v>
+      </c>
+      <c r="H32" s="72"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" ht="19.3" customHeight="1" thickBot="1">
+      <c r="A33" s="79">
         <v>1995</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="68">
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="68">
         <v>332149</v>
       </c>
-      <c r="F32" s="64">
+      <c r="F33" s="64">
         <v>224784</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G33" s="22">
         <v>107365</v>
       </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="39"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="88" t="s">
-        <v>16</v>
-      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="39"/>
+    </row>
+    <row r="34" spans="1:13">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:13">
+      <c r="A35" s="88" t="s">
+        <v>16</v>
+      </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:13">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:13">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:13">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:13">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:13">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:13">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:13">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:13">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:13">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:13">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:13">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:13">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:13">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -3065,6 +3136,13 @@
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3087,10 +3165,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6"/>
@@ -3116,27 +3194,27 @@
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="120" t="s">
+      <c r="C2" s="136"/>
+      <c r="D2" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="130" t="s">
+      <c r="E2" s="136"/>
+      <c r="F2" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="132"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="147"/>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1">
-      <c r="A3" s="114"/>
+      <c r="A3" s="129"/>
       <c r="B3" s="99" t="s">
         <v>6</v>
       </c>
@@ -3152,17 +3230,17 @@
       <c r="F3" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="133" t="s">
+      <c r="G3" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="133"/>
-      <c r="I3" s="134" t="s">
+      <c r="H3" s="148"/>
+      <c r="I3" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="135"/>
+      <c r="J3" s="150"/>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" thickBot="1">
-      <c r="A4" s="115"/>
+      <c r="A4" s="130"/>
       <c r="B4" s="100" t="s">
         <v>8</v>
       </c>
@@ -3193,197 +3271,205 @@
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1">
       <c r="A5" s="90">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B5" s="23">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="C5" s="91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="92" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" s="94">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="H5" s="94">
         <v>3</v>
       </c>
       <c r="I5" s="94">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J5" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="29.6" customHeight="1">
-      <c r="A6" s="8">
+    <row r="6" spans="1:12" ht="30" customHeight="1">
+      <c r="A6" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B6" s="87">
+        <v>51</v>
+      </c>
+      <c r="C6" s="156">
+        <v>2</v>
+      </c>
+      <c r="D6" s="157">
+        <v>60</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="162">
+        <v>2</v>
+      </c>
+      <c r="G6" s="163">
+        <v>68</v>
+      </c>
+      <c r="H6" s="163">
+        <v>3</v>
+      </c>
+      <c r="I6" s="163">
+        <v>21</v>
+      </c>
+      <c r="J6" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="29.6" customHeight="1">
+      <c r="A7" s="8">
         <v>2019</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B7" s="29">
         <v>29</v>
       </c>
-      <c r="C6" s="152">
+      <c r="C7" s="116">
         <v>3</v>
       </c>
-      <c r="D6" s="153">
+      <c r="D7" s="117">
         <v>58</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="154">
+      <c r="E7" s="28"/>
+      <c r="F7" s="118">
         <v>2</v>
       </c>
-      <c r="G6" s="155">
+      <c r="G7" s="119">
         <v>52</v>
       </c>
-      <c r="H6" s="155">
+      <c r="H7" s="119">
         <v>0</v>
       </c>
-      <c r="I6" s="155">
+      <c r="I7" s="119">
         <v>2</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J7" s="28">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="29.6" customHeight="1">
-      <c r="A7" s="26">
+    <row r="8" spans="1:12" ht="29.6" customHeight="1">
+      <c r="A8" s="26">
         <v>2018</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B8" s="29">
         <v>62</v>
       </c>
-      <c r="C7" s="89">
+      <c r="C8" s="89">
         <v>3</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D8" s="29">
         <v>57</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="43">
-        <v>2</v>
-      </c>
-      <c r="G7" s="44">
-        <v>50</v>
-      </c>
-      <c r="H7" s="44">
-        <v>0</v>
-      </c>
-      <c r="I7" s="44">
-        <v>4</v>
-      </c>
-      <c r="J7" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="29.6" customHeight="1">
-      <c r="A8" s="30">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="29">
-        <v>75</v>
-      </c>
-      <c r="C8" s="86">
-        <v>2</v>
-      </c>
-      <c r="D8" s="87">
-        <v>57</v>
-      </c>
-      <c r="E8" s="31"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="43">
         <v>2</v>
       </c>
       <c r="G8" s="44">
+        <v>50</v>
+      </c>
+      <c r="H8" s="44">
+        <v>0</v>
+      </c>
+      <c r="I8" s="44">
+        <v>4</v>
+      </c>
+      <c r="J8" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="29.6" customHeight="1">
+      <c r="A9" s="30">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="29">
+        <v>75</v>
+      </c>
+      <c r="C9" s="86">
+        <v>2</v>
+      </c>
+      <c r="D9" s="87">
+        <v>57</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="43">
+        <v>2</v>
+      </c>
+      <c r="G9" s="44">
         <v>26</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H9" s="44">
         <v>1</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I9" s="44">
         <v>5</v>
       </c>
-      <c r="J8" s="45">
+      <c r="J9" s="45">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="29.6" customHeight="1">
-      <c r="A9" s="8">
+    <row r="10" spans="1:12" ht="29.6" customHeight="1">
+      <c r="A10" s="8">
         <v>2016</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="66">
+      <c r="B10" s="15"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="66">
         <v>53</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="46">
+      <c r="E10" s="17"/>
+      <c r="F10" s="46">
         <v>2</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G10" s="34">
         <v>12</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H10" s="34">
         <v>2</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I10" s="34">
         <v>5</v>
       </c>
-      <c r="J9" s="35"/>
-    </row>
-    <row r="10" spans="1:12" ht="29.6" customHeight="1">
-      <c r="A10" s="6">
+      <c r="J10" s="35"/>
+    </row>
+    <row r="11" spans="1:12" ht="29.6" customHeight="1">
+      <c r="A11" s="6">
         <v>2015</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="67">
+      <c r="B11" s="12"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="67">
         <v>52</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="36">
+      <c r="E11" s="14"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="36">
         <v>1</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H11" s="36">
         <v>2</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I11" s="36">
         <v>1</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" ht="29.6" customHeight="1">
-      <c r="A11" s="71">
-        <v>2014</v>
-      </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="96">
-        <v>55</v>
-      </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="76">
-        <v>2</v>
-      </c>
-      <c r="H11" s="76">
-        <v>2</v>
-      </c>
-      <c r="I11" s="76">
-        <v>1</v>
-      </c>
-      <c r="J11" s="77"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" ht="29.6" customHeight="1">
       <c r="A12" s="71">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B12" s="72"/>
       <c r="C12" s="95"/>
@@ -3392,19 +3478,25 @@
       </c>
       <c r="E12" s="74"/>
       <c r="F12" s="97"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
+      <c r="G12" s="76">
+        <v>2</v>
+      </c>
+      <c r="H12" s="76">
+        <v>2</v>
+      </c>
+      <c r="I12" s="76">
+        <v>1</v>
+      </c>
       <c r="J12" s="77"/>
     </row>
     <row r="13" spans="1:12" ht="29.6" customHeight="1">
       <c r="A13" s="71">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B13" s="72"/>
       <c r="C13" s="95"/>
       <c r="D13" s="96">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13" s="74"/>
       <c r="F13" s="97"/>
@@ -3415,12 +3507,12 @@
     </row>
     <row r="14" spans="1:12" ht="29.6" customHeight="1">
       <c r="A14" s="71">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B14" s="72"/>
       <c r="C14" s="95"/>
       <c r="D14" s="96">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E14" s="74"/>
       <c r="F14" s="97"/>
@@ -3429,38 +3521,41 @@
       <c r="I14" s="76"/>
       <c r="J14" s="77"/>
     </row>
-    <row r="15" spans="1:12" ht="29.6" customHeight="1" thickBot="1">
-      <c r="A15" s="7">
+    <row r="15" spans="1:12" ht="29.6" customHeight="1">
+      <c r="A15" s="71">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="72"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="96">
+        <v>50</v>
+      </c>
+      <c r="E15" s="74"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="77"/>
+    </row>
+    <row r="16" spans="1:12" ht="29.6" customHeight="1" thickBot="1">
+      <c r="A16" s="7">
         <v>2010</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="68">
+      <c r="B16" s="20"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="68">
         <v>44</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39"/>
-    </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="E16" s="22"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="39"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" customHeight="1">
+      <c r="A17" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-    </row>
-    <row r="17" spans="1:10" ht="30" customHeight="1" thickBot="1">
-      <c r="A17" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -3471,310 +3566,321 @@
       <c r="I17" s="49"/>
       <c r="J17" s="49"/>
     </row>
-    <row r="18" spans="1:10" ht="30" customHeight="1">
-      <c r="A18" s="113" t="s">
+    <row r="18" spans="1:10" ht="30" customHeight="1" thickBot="1">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" customHeight="1">
+      <c r="A19" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="113" t="s">
+      <c r="B19" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="121"/>
-      <c r="D18" s="120" t="s">
+      <c r="C19" s="136"/>
+      <c r="D19" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="121"/>
-      <c r="F18" s="124" t="s">
+      <c r="E19" s="136"/>
+      <c r="F19" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="126"/>
-    </row>
-    <row r="19" spans="1:10" ht="30" customHeight="1">
-      <c r="A19" s="114"/>
-      <c r="B19" s="99" t="s">
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="141"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" customHeight="1">
+      <c r="A20" s="129"/>
+      <c r="B20" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C20" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="101" t="s">
+      <c r="D20" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="102" t="s">
+      <c r="E20" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F20" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="127" t="s">
+      <c r="G20" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="127"/>
-      <c r="I19" s="128" t="s">
+      <c r="H20" s="142"/>
+      <c r="I20" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="129"/>
-    </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1">
-      <c r="A20" s="115"/>
-      <c r="B20" s="100" t="s">
+      <c r="J20" s="144"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" thickBot="1">
+      <c r="A21" s="130"/>
+      <c r="B21" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="C21" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="80" t="s">
+      <c r="D21" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="51" t="s">
+      <c r="F21" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="52" t="s">
+      <c r="G21" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="52" t="s">
+      <c r="H21" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="52" t="s">
+      <c r="I21" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="53" t="s">
+      <c r="J21" s="53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="27.9" customHeight="1">
-      <c r="A21" s="90">
+    <row r="22" spans="1:10" ht="27.9" customHeight="1">
+      <c r="A22" s="90">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="105">
+        <v>19411</v>
+      </c>
+      <c r="C22" s="91">
+        <v>740</v>
+      </c>
+      <c r="D22" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="41">
+        <v>125</v>
+      </c>
+      <c r="G22" s="168">
+        <v>1679</v>
+      </c>
+      <c r="H22" s="42">
+        <v>40</v>
+      </c>
+      <c r="I22" s="42">
+        <v>116</v>
+      </c>
+      <c r="J22" s="32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="27.9" customHeight="1">
+      <c r="A23" s="6">
         <v>2020</v>
       </c>
-      <c r="B21" s="156">
+      <c r="B23" s="151">
         <v>8459</v>
       </c>
-      <c r="C21" s="91">
+      <c r="C23" s="156">
         <v>296</v>
       </c>
-      <c r="D21" s="92" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="41">
+      <c r="D23" s="167">
+        <v>7569</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="158">
         <v>149</v>
       </c>
-      <c r="G21" s="106">
+      <c r="G23" s="159">
         <v>2513</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H23" s="160">
         <v>16</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I23" s="160">
         <v>266</v>
       </c>
-      <c r="J21" s="32">
+      <c r="J23" s="161">
         <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="27.9" customHeight="1">
-      <c r="A22" s="8">
-        <v>2019</v>
-      </c>
-      <c r="B22" s="156">
-        <v>4900</v>
-      </c>
-      <c r="C22" s="152">
-        <v>293</v>
-      </c>
-      <c r="D22" s="104">
-        <v>6203</v>
-      </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="43">
-        <v>99</v>
-      </c>
-      <c r="G22" s="106">
-        <v>1517</v>
-      </c>
-      <c r="H22" s="44">
-        <v>0</v>
-      </c>
-      <c r="I22" s="44">
-        <v>13</v>
-      </c>
-      <c r="J22" s="45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="27.9" customHeight="1">
-      <c r="A23" s="26">
-        <v>2018</v>
-      </c>
-      <c r="B23" s="81">
-        <v>12341</v>
-      </c>
-      <c r="C23" s="45">
-        <v>158</v>
-      </c>
-      <c r="D23" s="104">
-        <v>6429</v>
-      </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="43">
-        <v>35</v>
-      </c>
-      <c r="G23" s="106">
-        <v>1176</v>
-      </c>
-      <c r="H23" s="44">
-        <v>0</v>
-      </c>
-      <c r="I23" s="44">
-        <v>12</v>
-      </c>
-      <c r="J23" s="45">
-        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="27.9" customHeight="1">
       <c r="A24" s="8">
-        <v>2017</v>
-      </c>
-      <c r="B24" s="81">
-        <v>16413</v>
-      </c>
-      <c r="C24" s="45">
-        <v>259</v>
+        <v>2019</v>
+      </c>
+      <c r="B24" s="120">
+        <v>4900</v>
+      </c>
+      <c r="C24" s="116">
+        <v>293</v>
       </c>
       <c r="D24" s="104">
-        <v>6844</v>
+        <v>6203</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="43">
+        <v>99</v>
+      </c>
+      <c r="G24" s="106">
+        <v>1517</v>
+      </c>
+      <c r="H24" s="44">
+        <v>0</v>
+      </c>
+      <c r="I24" s="44">
+        <v>13</v>
+      </c>
+      <c r="J24" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="27.9" customHeight="1">
+      <c r="A25" s="26">
+        <v>2018</v>
+      </c>
+      <c r="B25" s="81">
+        <v>12341</v>
+      </c>
+      <c r="C25" s="45">
+        <v>158</v>
+      </c>
+      <c r="D25" s="104">
+        <v>6429</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="43">
+        <v>35</v>
+      </c>
+      <c r="G25" s="106">
+        <v>1176</v>
+      </c>
+      <c r="H25" s="44">
+        <v>0</v>
+      </c>
+      <c r="I25" s="44">
+        <v>12</v>
+      </c>
+      <c r="J25" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="27.9" customHeight="1">
+      <c r="A26" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B26" s="81">
+        <v>16413</v>
+      </c>
+      <c r="C26" s="45">
+        <v>259</v>
+      </c>
+      <c r="D26" s="104">
+        <v>6844</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="43">
         <v>39</v>
       </c>
-      <c r="G24" s="44">
+      <c r="G26" s="44">
         <v>517</v>
       </c>
-      <c r="H24" s="44">
+      <c r="H26" s="44">
         <v>1</v>
       </c>
-      <c r="I24" s="44">
+      <c r="I26" s="44">
         <v>32</v>
       </c>
-      <c r="J24" s="45">
+      <c r="J26" s="45">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="27.9" customHeight="1">
-      <c r="A25" s="8">
+    <row r="27" spans="1:10" ht="27.9" customHeight="1">
+      <c r="A27" s="8">
         <v>2016</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="66">
+      <c r="B27" s="15"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="66">
         <v>6881</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="19">
+      <c r="E27" s="17"/>
+      <c r="F27" s="19">
         <v>6</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G27" s="18">
         <v>304</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H27" s="18">
         <v>10</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I27" s="18">
         <v>13</v>
       </c>
-      <c r="J25" s="17"/>
-    </row>
-    <row r="26" spans="1:10" ht="27.9" customHeight="1">
-      <c r="A26" s="6">
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" spans="1:10" ht="27.9" customHeight="1">
+      <c r="A28" s="6">
         <v>2015</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="67">
+      <c r="B28" s="12"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="67">
         <v>6726</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13">
+      <c r="E28" s="14"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13">
         <v>9</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H28" s="13">
         <v>13</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I28" s="13">
         <v>1</v>
       </c>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="1:10" ht="27.9" customHeight="1">
-      <c r="A27" s="71">
-        <v>2014</v>
-      </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="96">
-        <v>7233</v>
-      </c>
-      <c r="E27" s="74"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="73">
-        <v>3</v>
-      </c>
-      <c r="H27" s="73">
-        <v>3</v>
-      </c>
-      <c r="I27" s="73">
-        <v>1</v>
-      </c>
-      <c r="J27" s="74"/>
-    </row>
-    <row r="28" spans="1:10" ht="27.9" customHeight="1">
-      <c r="A28" s="71">
-        <v>2013</v>
-      </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="96">
-        <v>7125</v>
-      </c>
-      <c r="E28" s="74"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="74"/>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10" ht="27.9" customHeight="1">
       <c r="A29" s="71">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B29" s="72"/>
       <c r="C29" s="95"/>
       <c r="D29" s="96">
-        <v>5400</v>
+        <v>7233</v>
       </c>
       <c r="E29" s="74"/>
       <c r="F29" s="72"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
+      <c r="G29" s="73">
+        <v>3</v>
+      </c>
+      <c r="H29" s="73">
+        <v>3</v>
+      </c>
+      <c r="I29" s="73">
+        <v>1</v>
+      </c>
       <c r="J29" s="74"/>
     </row>
     <row r="30" spans="1:10" ht="27.9" customHeight="1">
       <c r="A30" s="71">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B30" s="72"/>
       <c r="C30" s="95"/>
       <c r="D30" s="96">
-        <v>5966</v>
+        <v>7125</v>
       </c>
       <c r="E30" s="74"/>
       <c r="F30" s="72"/>
@@ -3783,51 +3889,83 @@
       <c r="I30" s="73"/>
       <c r="J30" s="74"/>
     </row>
-    <row r="31" spans="1:10" ht="27.9" customHeight="1" thickBot="1">
-      <c r="A31" s="7">
+    <row r="31" spans="1:10" ht="27.9" customHeight="1">
+      <c r="A31" s="71">
+        <v>2012</v>
+      </c>
+      <c r="B31" s="72"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="96">
+        <v>5400</v>
+      </c>
+      <c r="E31" s="74"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="74"/>
+    </row>
+    <row r="32" spans="1:10" ht="27.9" customHeight="1">
+      <c r="A32" s="71">
+        <v>2011</v>
+      </c>
+      <c r="B32" s="72"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="96">
+        <v>5966</v>
+      </c>
+      <c r="E32" s="74"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="74"/>
+    </row>
+    <row r="33" spans="1:10" ht="27.9" customHeight="1" thickBot="1">
+      <c r="A33" s="7">
         <v>2010</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="68">
+      <c r="B33" s="20"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="68">
         <v>3524</v>
       </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="22"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="2:4">
+      <c r="E33" s="22"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="22"/>
+    </row>
+    <row r="34" spans="1:10">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="1:10">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="1:10">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="1:10">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3837,12 +3975,12 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
